--- a/Errubrikak.xlsx
+++ b/Errubrikak.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1AW3-7\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1AW3-7\Desktop\RETO 24-25\RETO-24-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="ENTORNOS DE DESARROLLO" sheetId="1" r:id="rId1"/>
@@ -821,7 +821,9 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1075,7 +1077,7 @@
   </sheetPr>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>

--- a/Errubrikak.xlsx
+++ b/Errubrikak.xlsx
@@ -822,7 +822,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/Errubrikak.xlsx
+++ b/Errubrikak.xlsx
@@ -1077,7 +1077,9 @@
   </sheetPr>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
